--- a/data/trans_dic/P2A_fisi_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_fisi_R-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01245310463340385</v>
+        <v>0.01258748059610459</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05242634573253028</v>
+        <v>0.05019870151950895</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03334580638445327</v>
+        <v>0.03221892135387463</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06212006648798874</v>
+        <v>0.05984067965355609</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.008185035509594214</v>
+        <v>0.007954914530569056</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09320000002415969</v>
+        <v>0.09266750063084457</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05863769013162598</v>
+        <v>0.05275724533263591</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08100560045995302</v>
+        <v>0.0761132031226362</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01514640937787193</v>
+        <v>0.01527154272514072</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08090366925508283</v>
+        <v>0.08112704034041449</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0515574798854471</v>
+        <v>0.05306194741066446</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07764462879090323</v>
+        <v>0.07617667533733938</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0606813957395525</v>
+        <v>0.05644490333279374</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1132794551176406</v>
+        <v>0.1101689239244493</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09062758776324185</v>
+        <v>0.09034545575124592</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1210165430094824</v>
+        <v>0.121630027714186</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04760342599646877</v>
+        <v>0.04797789721245916</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1791623041518149</v>
+        <v>0.1786065983562631</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1244156711689227</v>
+        <v>0.1286820252527875</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1291263787135735</v>
+        <v>0.1239818412977586</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04441573146198954</v>
+        <v>0.04464231151665673</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1360695020693315</v>
+        <v>0.1350635331294713</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09708475863613343</v>
+        <v>0.09549766273431373</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1153098020212845</v>
+        <v>0.1147566232962371</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05724161126689344</v>
+        <v>0.05499218556607383</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0583896792830792</v>
+        <v>0.05722192431141063</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02050297193486383</v>
+        <v>0.02067109468210233</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1372641124049692</v>
+        <v>0.1353899879862317</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05568220528435055</v>
+        <v>0.05602651564316061</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05786954953633895</v>
+        <v>0.05773002813468673</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02510572341743523</v>
+        <v>0.0262832385456154</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.128302275684797</v>
+        <v>0.1304657301364352</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06134361190942887</v>
+        <v>0.06222119718406376</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06468253859602986</v>
+        <v>0.06603338216119016</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02663510124761384</v>
+        <v>0.02630831928304543</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1389889167932221</v>
+        <v>0.1402822541041283</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1066200964502787</v>
+        <v>0.1084913520612904</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1106622272029973</v>
+        <v>0.1120362337425294</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05020442124114842</v>
+        <v>0.05545377755292159</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2135500711218518</v>
+        <v>0.2144505059905356</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1032228068033216</v>
+        <v>0.1035669797147059</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1117983646485648</v>
+        <v>0.1111965564494085</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06186819573156623</v>
+        <v>0.06188560795383641</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.178267061306279</v>
+        <v>0.1772874008036201</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0980724444477267</v>
+        <v>0.09666865448375576</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1012546503889618</v>
+        <v>0.1005084210494339</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05113322056412186</v>
+        <v>0.05058181349711244</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.186613726069376</v>
+        <v>0.1828403635904414</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.009134615297586961</v>
+        <v>0.009371651216090762</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04759595477936145</v>
+        <v>0.04755611356952805</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005503790156885608</v>
+        <v>0.005384286622248706</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09284769707359242</v>
+        <v>0.09029964286317267</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01381495829118292</v>
+        <v>0.01484973010694557</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05308165790728131</v>
+        <v>0.05363502466544078</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01730913050544667</v>
+        <v>0.01847787491297874</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08483934626593757</v>
+        <v>0.08464378995248086</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01547553778990817</v>
+        <v>0.01421686058884321</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05735204600239179</v>
+        <v>0.05663096865515491</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0147669394939092</v>
+        <v>0.01520173746740869</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0952349193861133</v>
+        <v>0.09443553559571664</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04106505870101401</v>
+        <v>0.04160329934601472</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1141643528863288</v>
+        <v>0.1071908915923441</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0340577554604631</v>
+        <v>0.03308765133602094</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1564568635855753</v>
+        <v>0.1608957492187032</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05117848057510017</v>
+        <v>0.05301820721931264</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1143591244555847</v>
+        <v>0.1133926252416793</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05836809615949298</v>
+        <v>0.06128716617288985</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.141153131889881</v>
+        <v>0.1439529723793501</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03938694173269511</v>
+        <v>0.03935919747965068</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1012511865992666</v>
+        <v>0.1019873016893516</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04001944898944172</v>
+        <v>0.04032748450142488</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1390137629920816</v>
+        <v>0.1379708492932705</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.1098706225391025</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.0475571274326772</v>
+        <v>0.04755712743267722</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.03689882051684538</v>
@@ -1105,7 +1105,7 @@
         <v>0.09680737162078647</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05727942788920818</v>
+        <v>0.05727942788920817</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0106757084295973</v>
+        <v>0.01203029018767033</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03743969222455586</v>
+        <v>0.03608088224094819</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05610454236129565</v>
+        <v>0.05831013842998599</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04023362697778063</v>
+        <v>0.04185194896601608</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03149422576762863</v>
+        <v>0.03177540783307409</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.069181218481368</v>
+        <v>0.06875438644694004</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0797949240070371</v>
+        <v>0.07781667278608259</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03264953676739721</v>
+        <v>0.03260163698785533</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02507974502880938</v>
+        <v>0.02521296954775833</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05938455000318339</v>
+        <v>0.05844675257725269</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07513942164657955</v>
+        <v>0.07597757909970657</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04072794710384102</v>
+        <v>0.03896802339044382</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04304750475457403</v>
+        <v>0.04191391672808534</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08758935092011952</v>
+        <v>0.08955580010028251</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1136769537009659</v>
+        <v>0.1180080914755363</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1093118111958394</v>
+        <v>0.1108715332813998</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07592902909625211</v>
+        <v>0.07604448171949137</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1286220946905641</v>
+        <v>0.1294389884560971</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1512420310943015</v>
+        <v>0.1473380946847193</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07388686606475811</v>
+        <v>0.07129276786662386</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05188221670252002</v>
+        <v>0.05305681790010769</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.101590564257892</v>
+        <v>0.09850881197215812</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1225321977223384</v>
+        <v>0.121991877122763</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.081068179309748</v>
+        <v>0.07799424727737239</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.0716720472115687</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.06871721502535352</v>
+        <v>0.06871721502535354</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.09979586642293621</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05149356667795696</v>
+        <v>0.04881392122184019</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08857752089072467</v>
+        <v>0.08674047794720423</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.043518561412122</v>
+        <v>0.0417150699779497</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04371335664583807</v>
+        <v>0.04682134559416477</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06706513571605048</v>
+        <v>0.06122898548992129</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1455621172519357</v>
+        <v>0.1463448769553898</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04126112771372239</v>
+        <v>0.03974690524154283</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06518033498510162</v>
+        <v>0.0650757684826536</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06444936552316574</v>
+        <v>0.06637406820523475</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1310171054751715</v>
+        <v>0.1341912148419758</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04801671704345428</v>
+        <v>0.04908300852228478</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06172769258451093</v>
+        <v>0.06039912329220026</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1250034574363778</v>
+        <v>0.1236747273273224</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1852326347907328</v>
+        <v>0.1859775002792551</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1204815673099377</v>
+        <v>0.1176990189015946</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.103193313142742</v>
+        <v>0.1009397810339906</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1488207326756346</v>
+        <v>0.1499109220216912</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.257932079218391</v>
+        <v>0.2516086487738087</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1109825914272927</v>
+        <v>0.1134346826802609</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1138385311654005</v>
+        <v>0.1136159348007897</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1214731093995682</v>
+        <v>0.1244933178124636</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2031848618495256</v>
+        <v>0.2053714135226104</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.09470751867880532</v>
+        <v>0.09635915187487179</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09691186061691325</v>
+        <v>0.09679962526005773</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.09229353169483454</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1937576598686295</v>
+        <v>0.1937576598686294</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.01668905195395759</v>
@@ -1391,37 +1391,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03277011696830016</v>
+        <v>0.03300024429870792</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05673999837240617</v>
+        <v>0.05582048558144753</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1702058978825095</v>
+        <v>0.1730407149643677</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01087313382693486</v>
+        <v>0.0112210993150779</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.07627365131243946</v>
+        <v>0.07623997383632422</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.05965911227598913</v>
+        <v>0.06066714674756567</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1573224519631912</v>
+        <v>0.160499885072085</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.008205234467349672</v>
+        <v>0.008335531037085921</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.06355029960675022</v>
+        <v>0.06295904692925358</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.06495338715338957</v>
+        <v>0.06652745685056966</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1749680929122551</v>
+        <v>0.1764011590927344</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02489945663383085</v>
+        <v>0.02486452820484046</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09238747879475974</v>
+        <v>0.08895790351731468</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1248177809879229</v>
+        <v>0.1223506653140919</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2550436709326985</v>
+        <v>0.2572669894456503</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05207205015081564</v>
+        <v>0.05331445845411028</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1581316655773248</v>
+        <v>0.1538840051050307</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1363939634624025</v>
+        <v>0.1360769894832528</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2333670184239738</v>
+        <v>0.2360108239729236</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0327026977153595</v>
+        <v>0.03053984839970859</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1120530732617392</v>
+        <v>0.1134666606224185</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.115466894406593</v>
+        <v>0.1188362946508485</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2308362085852377</v>
+        <v>0.2312076893954947</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.05133250830884522</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.1283942332406054</v>
+        <v>0.1283942332406055</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03993085736394678</v>
+        <v>0.03982089422367472</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04985938682406572</v>
+        <v>0.04798018957720952</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0268123136652502</v>
+        <v>0.02761618439956162</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08995433190809851</v>
+        <v>0.09082719155097697</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04041258328327893</v>
+        <v>0.04010668417528614</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05813628539181309</v>
+        <v>0.0574301907066032</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.04507081419398548</v>
+        <v>0.04293887806625849</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1213004819815771</v>
+        <v>0.1195580889249632</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04507885381582914</v>
+        <v>0.04435517417154816</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.05795567859345019</v>
+        <v>0.0589191734164102</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.04011608167897952</v>
+        <v>0.04008644242053196</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1131364796164832</v>
+        <v>0.1118756851817325</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07823625802182307</v>
+        <v>0.07694436004863246</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09082533206598534</v>
+        <v>0.08895322017006912</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06004268602079946</v>
+        <v>0.05985232452196861</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1398116907083745</v>
+        <v>0.1394336419146559</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07953517619824034</v>
+        <v>0.08010335780493463</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.09985781839586624</v>
+        <v>0.1005600087308222</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.08331551031190396</v>
+        <v>0.0822762592302643</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1670445869384138</v>
+        <v>0.1646278815201591</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.07236720008518169</v>
+        <v>0.07184717150386884</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.08929888168932985</v>
+        <v>0.08967225233774609</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.06567100051000002</v>
+        <v>0.06669178865992452</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1475457910335376</v>
+        <v>0.1463119233064952</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.07003020699213199</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.06116622562388477</v>
+        <v>0.06116622562388476</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.09388162254387886</v>
@@ -1649,7 +1649,7 @@
         <v>0.07258691995868954</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.0745184418519014</v>
+        <v>0.07451844185190142</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04934472618691364</v>
+        <v>0.0482790303117139</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.04976655893493345</v>
+        <v>0.04762857595793508</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.05233311015631505</v>
+        <v>0.05300592441912012</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.04673834092102882</v>
+        <v>0.04708404625237367</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.07228165819142489</v>
+        <v>0.07356786380888304</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04726147169819742</v>
+        <v>0.04642072530549355</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.05815036210297658</v>
+        <v>0.05698463611973102</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.07172812024560662</v>
+        <v>0.0711256905871082</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.0666459310507499</v>
+        <v>0.0673658020672884</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.05116533246470356</v>
+        <v>0.05076202447391446</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.06127703627364584</v>
+        <v>0.058785398757024</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.06213924006024893</v>
+        <v>0.06296724912576901</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.08477319106699541</v>
+        <v>0.08616199303685219</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.08747321114277182</v>
+        <v>0.08612822648376052</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0926610223419147</v>
+        <v>0.0936462635381707</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.08082038563559925</v>
+        <v>0.08077247090897183</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1171658746814688</v>
+        <v>0.117907152095876</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.08070425303793645</v>
+        <v>0.08272864536089521</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.09540478642775778</v>
+        <v>0.09513581767387777</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1057688233705198</v>
+        <v>0.1036883789036996</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.0951149323353688</v>
+        <v>0.09514418773189376</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.07714312742521461</v>
+        <v>0.07833540968667038</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.08629105048395559</v>
+        <v>0.08672481790714495</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.08651480697407243</v>
+        <v>0.08741298540083346</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.04285200873922652</v>
+        <v>0.04277616800071952</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.0642951189885948</v>
+        <v>0.06438953553770181</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.04838153796789946</v>
+        <v>0.04767982581940018</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.09716305788333555</v>
+        <v>0.09870439189899308</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.05464096204607682</v>
+        <v>0.05474596447383961</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.08199023821857671</v>
+        <v>0.08119282508642628</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.06027443957268275</v>
+        <v>0.06011752654520586</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1062603195657008</v>
+        <v>0.1062736264969031</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.05095976112769389</v>
+        <v>0.05138876134609212</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.07590467218028921</v>
+        <v>0.07535034231610496</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.05634277062347628</v>
+        <v>0.05582634633503576</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1051969513523481</v>
+        <v>0.1044743221783358</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.05749074562967509</v>
+        <v>0.05843018412780338</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.08293609902617817</v>
+        <v>0.082932106996797</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.06483610987414637</v>
+        <v>0.0637013106270657</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1188913068127</v>
+        <v>0.1196506665590197</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.07129388954889423</v>
+        <v>0.07143190253277287</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1015201075544141</v>
+        <v>0.100827331118257</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.07901834150987914</v>
+        <v>0.07857669178624521</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1235802588909297</v>
+        <v>0.1238485385859447</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.06222152767841781</v>
+        <v>0.06224914621784765</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.08938330677493805</v>
+        <v>0.08950562897190951</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.06817032633125863</v>
+        <v>0.06836301283125795</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1184713604200549</v>
+        <v>0.1182552928918669</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3400</v>
+        <v>3437</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15452</v>
+        <v>14795</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9796</v>
+        <v>9465</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>19807</v>
+        <v>19080</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2135</v>
+        <v>2075</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>26771</v>
+        <v>26618</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>16929</v>
+        <v>15231</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>25603</v>
+        <v>24056</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>8086</v>
+        <v>8153</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>47085</v>
+        <v>47215</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>30030</v>
+        <v>30907</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>49297</v>
+        <v>48365</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>16567</v>
+        <v>15410</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>33388</v>
+        <v>32471</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26623</v>
+        <v>26540</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>38586</v>
+        <v>38781</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>12417</v>
+        <v>12514</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>51463</v>
+        <v>51304</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>35919</v>
+        <v>37151</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>40812</v>
+        <v>39186</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>23711</v>
+        <v>23832</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>79190</v>
+        <v>78605</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>56548</v>
+        <v>55624</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>73211</v>
+        <v>72860</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>28224</v>
+        <v>27115</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>29518</v>
+        <v>28927</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10304</v>
+        <v>10389</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>72839</v>
+        <v>71844</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>28061</v>
+        <v>28235</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>30310</v>
+        <v>30237</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>13132</v>
+        <v>13748</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>70116</v>
+        <v>71299</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>61161</v>
+        <v>62036</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>66577</v>
+        <v>67968</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>27319</v>
+        <v>26983</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>149711</v>
+        <v>151104</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>52572</v>
+        <v>53494</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>55943</v>
+        <v>56637</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>25231</v>
+        <v>27870</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>113320</v>
+        <v>113798</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>52019</v>
+        <v>52192</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>58556</v>
+        <v>58241</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>32362</v>
+        <v>32371</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>97422</v>
+        <v>96887</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>97781</v>
+        <v>96381</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>104221</v>
+        <v>103453</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>52445</v>
+        <v>51880</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>201009</v>
+        <v>196945</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2913</v>
+        <v>2988</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15423</v>
+        <v>15410</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1753</v>
+        <v>1715</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>29339</v>
+        <v>28534</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4634</v>
+        <v>4981</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>18102</v>
+        <v>18291</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5821</v>
+        <v>6214</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>30235</v>
+        <v>30165</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>10125</v>
+        <v>9301</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>38143</v>
+        <v>37663</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>9670</v>
+        <v>9955</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>64034</v>
+        <v>63496</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13093</v>
+        <v>13265</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>36995</v>
+        <v>34735</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10850</v>
+        <v>10541</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>49439</v>
+        <v>50842</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17166</v>
+        <v>17783</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>38999</v>
+        <v>38669</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>19630</v>
+        <v>20611</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>50304</v>
+        <v>51302</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>25769</v>
+        <v>25751</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>67339</v>
+        <v>67828</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>26208</v>
+        <v>26409</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>93469</v>
+        <v>92768</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3829</v>
+        <v>4315</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14002</v>
+        <v>13494</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>20757</v>
+        <v>21573</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>15013</v>
+        <v>15617</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11699</v>
+        <v>11803</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>26908</v>
+        <v>26742</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>30903</v>
+        <v>30137</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>13777</v>
+        <v>13757</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>18311</v>
+        <v>18409</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>45306</v>
+        <v>44591</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>56899</v>
+        <v>57534</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>32383</v>
+        <v>30984</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>15440</v>
+        <v>15033</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>32757</v>
+        <v>33492</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>42056</v>
+        <v>43659</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>40789</v>
+        <v>41371</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>28204</v>
+        <v>28247</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>50028</v>
+        <v>50345</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>58573</v>
+        <v>57062</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>31177</v>
+        <v>30083</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>37881</v>
+        <v>38738</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>77507</v>
+        <v>75156</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>92787</v>
+        <v>92378</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>64458</v>
+        <v>62014</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10469</v>
+        <v>9924</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>18833</v>
+        <v>18443</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>9192</v>
+        <v>8811</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>8990</v>
+        <v>9630</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>13927</v>
+        <v>12715</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>31964</v>
+        <v>32136</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>9019</v>
+        <v>8688</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>14921</v>
+        <v>14897</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>26487</v>
+        <v>27278</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>56627</v>
+        <v>57999</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>20638</v>
+        <v>21096</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>26826</v>
+        <v>26248</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>25414</v>
+        <v>25144</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>39384</v>
+        <v>39542</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>25448</v>
+        <v>24861</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>21223</v>
+        <v>20760</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>30905</v>
+        <v>31132</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>56640</v>
+        <v>55251</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>24259</v>
+        <v>24795</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>26060</v>
+        <v>26009</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>49923</v>
+        <v>51164</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>87818</v>
+        <v>88763</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>40706</v>
+        <v>41416</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>42116</v>
+        <v>42067</v>
       </c>
     </row>
     <row r="24">
@@ -3051,37 +3051,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8978</v>
+        <v>9041</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>14930</v>
+        <v>14688</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>46076</v>
+        <v>46843</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>3024</v>
+        <v>3121</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>21359</v>
+        <v>21350</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>16294</v>
+        <v>16569</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>41494</v>
+        <v>42332</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>4504</v>
+        <v>4576</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>35208</v>
+        <v>34880</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>34830</v>
+        <v>35675</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>93513</v>
+        <v>94279</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6743</v>
+        <v>6734</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>25312</v>
+        <v>24373</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>32842</v>
+        <v>32193</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>69042</v>
+        <v>69644</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>14484</v>
+        <v>14829</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>44282</v>
+        <v>43092</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>37251</v>
+        <v>37165</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>61551</v>
+        <v>62248</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>17952</v>
+        <v>16765</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>62079</v>
+        <v>62862</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>61918</v>
+        <v>63725</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>123372</v>
+        <v>123571</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>24559</v>
+        <v>24491</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>33046</v>
+        <v>31801</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>17604</v>
+        <v>18132</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>64739</v>
+        <v>65367</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>25792</v>
+        <v>25597</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>40338</v>
+        <v>39848</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>31157</v>
+        <v>29683</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>93651</v>
+        <v>92306</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>56495</v>
+        <v>55588</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>78625</v>
+        <v>79932</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>54071</v>
+        <v>54031</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>168771</v>
+        <v>166890</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>48117</v>
+        <v>47323</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>60198</v>
+        <v>58957</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>39422</v>
+        <v>39297</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>100621</v>
+        <v>100349</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>50761</v>
+        <v>51123</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>69287</v>
+        <v>69774</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>57596</v>
+        <v>56877</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>128968</v>
+        <v>127102</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>90694</v>
+        <v>90042</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>121147</v>
+        <v>121653</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>88515</v>
+        <v>89891</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>220101</v>
+        <v>218260</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>36702</v>
+        <v>35910</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>38773</v>
+        <v>37107</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>40746</v>
+        <v>41270</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>37301</v>
+        <v>37576</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>56633</v>
+        <v>57641</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>38937</v>
+        <v>38244</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>48042</v>
+        <v>47079</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>59630</v>
+        <v>59129</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>101789</v>
+        <v>102888</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>82016</v>
+        <v>81369</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>98334</v>
+        <v>94336</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>101250</v>
+        <v>102599</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>63054</v>
+        <v>64087</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>68150</v>
+        <v>67102</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>72144</v>
+        <v>72911</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>64500</v>
+        <v>64462</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>91801</v>
+        <v>92382</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>66488</v>
+        <v>68156</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>78820</v>
+        <v>78598</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>87929</v>
+        <v>86199</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>145270</v>
+        <v>145314</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>123657</v>
+        <v>125568</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>138476</v>
+        <v>139172</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>140967</v>
+        <v>142431</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>140406</v>
+        <v>140158</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>220325</v>
+        <v>220649</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>164224</v>
+        <v>161842</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>343254</v>
+        <v>348699</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>184643</v>
+        <v>184997</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>291747</v>
+        <v>288909</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>213645</v>
+        <v>213089</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>397090</v>
+        <v>397140</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>339175</v>
+        <v>342030</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>530201</v>
+        <v>526329</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>390956</v>
+        <v>387373</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>764752</v>
+        <v>759499</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>188371</v>
+        <v>191449</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>284204</v>
+        <v>284190</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>220076</v>
+        <v>216225</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>420015</v>
+        <v>422697</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>240916</v>
+        <v>241382</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>361240</v>
+        <v>358775</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>280084</v>
+        <v>278518</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>461814</v>
+        <v>462816</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>414130</v>
+        <v>414314</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>624350</v>
+        <v>625205</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>473027</v>
+        <v>474364</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>861253</v>
+        <v>859682</v>
       </c>
     </row>
     <row r="40">
